--- a/biology/Microbiologie/Leegaardiella/Leegaardiella.xlsx
+++ b/biology/Microbiologie/Leegaardiella/Leegaardiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leegaardiella, unique représentant de la famille des Leegaardiellidae, est un genre de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Leegaardiella est donné en hommage à Caroline Leegaard (d) (1885-1967), botaniste norvégienne qui étudia les ciliés planctoniques marins dans les années 1915[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Leegaardiella est donné en hommage à Caroline Leegaard (d) (1885-1967), botaniste norvégienne qui étudia les ciliés planctoniques marins dans les années 1915.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le genre Leegaardiella se présente comme : 
-« une cellule sub-phérique de 15 à 30 µm de long et 20 à 30 µm de diamètre ; une cavité buccale grande et concave, englobe presque toute la région antérieure et est généralement considérée comme une zone claire dans le matériau fixé au Lugol ; on compte 18 à 19 EPks[note 1] et 3 à 4 IPk[note 2]. Les EPks sont divisés en deux segments inégaux, dont le mode de ciliation est différent.(On observe) un macronoyau, sphéroïde, près de l'IPZ[note 3], une cinétie somatique[note 4] qui décrit une large forme en C.[2] »
+« une cellule sub-phérique de 15 à 30 µm de long et 20 à 30 µm de diamètre ; une cavité buccale grande et concave, englobe presque toute la région antérieure et est généralement considérée comme une zone claire dans le matériau fixé au Lugol ; on compte 18 à 19 EPks[note 1] et 3 à 4 IPk[note 2]. Les EPks sont divisés en deux segments inégaux, dont le mode de ciliation est différent.(On observe) un macronoyau, sphéroïde, près de l'IPZ[note 3], une cinétie somatique[note 4] qui décrit une large forme en C. »
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Leegaardiella est largement répandu dans toutes les eaux marines et saumâtres mondiales[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Leegaardiella est largement répandu dans toutes les eaux marines et saumâtres mondiales.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (12 novembre 2023)[4] et GBIF       (12 novembre 2023)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (12 novembre 2023) et GBIF       (12 novembre 2023) :
 Leegaardiella elbraechteri Petz, Song &amp; Wilbert, 1995
 Leegaardiella ovalis Lynn &amp; Montagnes, 1988
 Leegaardiella sol Lynn &amp; Montagnes, 1988</t>
@@ -639,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre, sa famille et les espèces Leegaardiella ovalis et Leegaardiella sol ont été décrits en 1988 par les biologistes Denis Heward Lynn (d) et David J. S. Montagnes (d)[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre, sa famille et les espèces Leegaardiella ovalis et Leegaardiella sol ont été décrits en 1988 par les biologistes Denis Heward Lynn (d) et David J. S. Montagnes (d).
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) D. H. Lynn et D. J. S. Montagnes, « Taxonomic Descriptions of Some Conspicuous Species of Strobilidiine Ciliates (Ciliophora: Choreotrichida) from the Isles of Shoals, Gulf of Maine », Journal of the Marine Biological Association of the United Kingdom, Cambridge, Cambridge University Press, vol. 68, no 4,‎ novembre 1988, p. 639-658 (ISSN 0025-3154 et 1469-7769, OCLC 1756690, DOI 10.1017/S0025315400028770)</t>
         </is>
